--- a/app/whitelist/whitelist.xlsx
+++ b/app/whitelist/whitelist.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,50 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>@gvatest</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1z4mg.c.wam</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>twitter</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>vasyaganzha@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>@gvatest</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1z4mg.c.wam</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>twitter</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>vasyaganzha@gmail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
